--- a/Hands-on Projects/Timesheet Migration/Timesheets/Karabo Tsaoane/Karabo_Tsaoane_March_Final.xlsx
+++ b/Hands-on Projects/Timesheet Migration/Timesheets/Karabo Tsaoane/Karabo_Tsaoane_March_Final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karabo Tsaoane\Documents\Work\TimeSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\scGradsGithub\Hands-on Projects\Timesheet Migration\Timesheets\Karabo Tsaoane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{BE543691-32E3-4AB7-B78E-0B3759E0F694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA02C14D-AA4D-4350-8538-4CA866CF226C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64650FB4-B42A-4855-A75F-CB8ACB31C5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{1C8F8026-B005-4B08-94D3-371A77F74D8F}"/>
   </bookViews>
@@ -19,6 +19,9 @@
     <sheet name="Leave" sheetId="9" r:id="rId4"/>
     <sheet name="Key" sheetId="2" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="TSheet">Mar!$A$8:$J$39</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -751,7 +754,7 @@
     <numFmt numFmtId="166" formatCode="_ [$R-1C09]\ * #,##0.00_ ;_ [$R-1C09]\ * \-#,##0.00_ ;_ [$R-1C09]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="[$R-1C09]#,##0.00;\-[$R-1C09]#,##0.00"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1909,146 +1912,6 @@
   </cellStyles>
   <dxfs count="39">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
@@ -2272,6 +2135,146 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{6758C6CA-2356-4535-9D9D-86230C423211}"/>
@@ -2484,23 +2487,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2E876225-7964-4082-91F1-C6221C464408}" name="WorkType" displayName="WorkType" ref="H2:H62" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2E876225-7964-4082-91F1-C6221C464408}" name="WorkType" displayName="WorkType" ref="H2:H62" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="H2:H62" xr:uid="{2E876225-7964-4082-91F1-C6221C464408}"/>
   <tableColumns count="1">
-    <tableColumn id="2" xr3:uid="{234A6588-4DEA-4067-9367-AEAFE02CA40D}" name="Resource" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{234A6588-4DEA-4067-9367-AEAFE02CA40D}" name="Resource" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B149CFBE-03DA-4A5C-8F86-52A53133C863}" name="ProjectTable" displayName="ProjectTable" ref="F2:F39" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B149CFBE-03DA-4A5C-8F86-52A53133C863}" name="ProjectTable" displayName="ProjectTable" ref="F2:F39" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
   <autoFilter ref="F2:F39" xr:uid="{B149CFBE-03DA-4A5C-8F86-52A53133C863}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F3:F19">
     <sortCondition ref="F2:F19"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D9788319-59C4-447A-9364-6F4EF6730453}" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D9788319-59C4-447A-9364-6F4EF6730453}" name="Description" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2782,20 +2785,20 @@
       <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="21" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="21" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="21" customWidth="1"/>
     <col min="4" max="5" width="20" style="21" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="37.375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="21" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="21"/>
+    <col min="6" max="6" width="23.09765625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="37.3984375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="8.69921875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9.09765625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.69921875" style="21"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
@@ -2805,7 +2808,7 @@
       <c r="C5" s="35"/>
       <c r="H5" s="38"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>2</v>
       </c>
@@ -2819,10 +2822,10 @@
       <c r="H6" s="38"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="25.15">
+    <row r="8" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>3</v>
       </c>
@@ -2854,7 +2857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>45689</v>
       </c>
@@ -2873,7 +2876,7 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <v>45690</v>
       </c>
@@ -2892,7 +2895,7 @@
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="75.599999999999994">
+    <row r="11" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>45691</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>0.71527777777777779</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="88.15">
+    <row r="12" spans="1:10" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>45699</v>
       </c>
@@ -2958,7 +2961,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="102.6" customHeight="1">
+    <row r="13" spans="1:10" ht="102.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>45700</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="56.45" customHeight="1">
+    <row r="14" spans="1:10" ht="56.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>45701</v>
       </c>
@@ -3024,7 +3027,7 @@
         <v>0.73611111111111116</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="72" customHeight="1">
+    <row r="15" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
         <v>45702</v>
       </c>
@@ -3057,7 +3060,7 @@
         <v>0.73958333333333337</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>45703</v>
       </c>
@@ -3076,7 +3079,7 @@
       <c r="I16" s="33"/>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <v>45704</v>
       </c>
@@ -3095,7 +3098,7 @@
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
     </row>
-    <row r="18" spans="1:10" ht="88.15">
+    <row r="18" spans="1:10" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A18" s="20">
         <v>45705</v>
       </c>
@@ -3128,7 +3131,7 @@
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="88.15">
+    <row r="19" spans="1:10" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A19" s="20">
         <v>45706</v>
       </c>
@@ -3161,7 +3164,7 @@
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="63">
+    <row r="20" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A20" s="20">
         <v>45707</v>
       </c>
@@ -3194,7 +3197,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="75.599999999999994">
+    <row r="21" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A21" s="20">
         <v>45708</v>
       </c>
@@ -3227,7 +3230,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="63">
+    <row r="22" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A22" s="20">
         <v>45709</v>
       </c>
@@ -3260,7 +3263,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
         <v>45710</v>
       </c>
@@ -3279,7 +3282,7 @@
       <c r="I23" s="33"/>
       <c r="J23" s="33"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
         <v>45711</v>
       </c>
@@ -3298,7 +3301,7 @@
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
     </row>
-    <row r="25" spans="1:10" ht="63">
+    <row r="25" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A25" s="20">
         <v>45712</v>
       </c>
@@ -3331,7 +3334,7 @@
         <v>0.71527777777777779</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="75.599999999999994">
+    <row r="26" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A26" s="20">
         <v>45713</v>
       </c>
@@ -3364,7 +3367,7 @@
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="88.15">
+    <row r="27" spans="1:10" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A27" s="20">
         <v>45714</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>0.71527777777777779</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="88.15">
+    <row r="28" spans="1:10" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A28" s="20">
         <v>45715</v>
       </c>
@@ -3430,7 +3433,7 @@
         <v>0.71527777777777779</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="88.15">
+    <row r="29" spans="1:10" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A29" s="20">
         <v>45716</v>
       </c>
@@ -3463,7 +3466,7 @@
         <v>0.71527777777777779</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="30" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="44"/>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
@@ -3474,7 +3477,7 @@
       <c r="H30" s="34"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:10" ht="13.9" customHeight="1">
+    <row r="31" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
@@ -3488,7 +3491,7 @@
       </c>
       <c r="H31" s="38"/>
     </row>
-    <row r="32" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="32" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="7"/>
@@ -3501,7 +3504,7 @@
       </c>
       <c r="H32" s="38"/>
     </row>
-    <row r="33" spans="1:8" ht="13.9" customHeight="1" thickBot="1">
+    <row r="33" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="109" t="s">
         <v>40</v>
       </c>
@@ -3512,7 +3515,7 @@
       <c r="F33" s="1"/>
       <c r="H33" s="38"/>
     </row>
-    <row r="34" spans="1:8" ht="13.9">
+    <row r="34" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="4"/>
@@ -3526,7 +3529,7 @@
       </c>
       <c r="H34" s="36"/>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" thickBot="1">
+    <row r="35" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="110" t="s">
         <v>42</v>
       </c>
@@ -3542,7 +3545,7 @@
       </c>
       <c r="H35" s="38"/>
     </row>
-    <row r="36" spans="1:8" ht="14.45" thickBot="1">
+    <row r="36" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3556,7 +3559,7 @@
       </c>
       <c r="H36" s="38"/>
     </row>
-    <row r="37" spans="1:8" ht="13.9" thickBot="1">
+    <row r="37" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3565,7 +3568,7 @@
       <c r="F37" s="1"/>
       <c r="H37" s="38"/>
     </row>
-    <row r="38" spans="1:8" ht="13.9" thickBot="1">
+    <row r="38" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3576,7 +3579,7 @@
       <c r="F38" s="19"/>
       <c r="H38" s="38"/>
     </row>
-    <row r="39" spans="1:8" ht="13.15" thickBot="1">
+    <row r="39" spans="1:8" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E39" s="37"/>
       <c r="H39" s="38"/>
     </row>
@@ -3587,56 +3590,56 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A6:B6 D6:E7">
-    <cfRule type="containsText" dxfId="38" priority="14" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="15" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="16" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="29" priority="16" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="18" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="27" priority="18" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B39">
-    <cfRule type="containsText" dxfId="31" priority="8" operator="containsText" text="Saturday">
+    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="Saturday">
       <formula>NOT(ISERROR(SEARCH("Saturday",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="Sunday">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="Sunday">
       <formula>NOT(ISERROR(SEARCH("Sunday",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:E31 D33:E35 E38">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",D30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3689,22 +3692,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1366D5-46F5-410C-BC9F-D56DCF566D28}">
   <dimension ref="A5:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="21" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="21" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="21" customWidth="1"/>
     <col min="4" max="5" width="20" style="21" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="23.09765625" style="21" customWidth="1"/>
     <col min="7" max="7" width="34" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="21"/>
+    <col min="8" max="16384" width="8.69921875" style="21"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
@@ -3714,7 +3717,7 @@
       <c r="C5" s="35"/>
       <c r="H5" s="38"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>2</v>
       </c>
@@ -3728,10 +3731,10 @@
       <c r="H6" s="38"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="25.15">
+    <row r="8" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>3</v>
       </c>
@@ -3763,7 +3766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>45717</v>
       </c>
@@ -3782,7 +3785,7 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <v>45718</v>
       </c>
@@ -3801,7 +3804,7 @@
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="100.9">
+    <row r="11" spans="1:10" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>45719</v>
       </c>
@@ -3834,7 +3837,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="63">
+    <row r="12" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>45720</v>
       </c>
@@ -3867,7 +3870,7 @@
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="88.15">
+    <row r="13" spans="1:10" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>45721</v>
       </c>
@@ -3900,7 +3903,7 @@
         <v>0.71527777777777779</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="115.9" customHeight="1">
+    <row r="14" spans="1:10" ht="115.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>45722</v>
       </c>
@@ -3933,7 +3936,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="79.150000000000006" customHeight="1">
+    <row r="15" spans="1:10" ht="79.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
         <v>45723</v>
       </c>
@@ -3966,7 +3969,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>45724</v>
       </c>
@@ -3985,7 +3988,7 @@
       <c r="I16" s="33"/>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <v>45725</v>
       </c>
@@ -4004,7 +4007,7 @@
       <c r="I17" s="33"/>
       <c r="J17" s="33"/>
     </row>
-    <row r="18" spans="1:10" ht="88.15">
+    <row r="18" spans="1:10" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A18" s="20">
         <v>45726</v>
       </c>
@@ -4037,7 +4040,7 @@
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="103.15" customHeight="1">
+    <row r="19" spans="1:10" ht="103.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20">
         <v>45727</v>
       </c>
@@ -4070,7 +4073,7 @@
         <v>0.73263888888888884</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="20">
         <v>45728</v>
       </c>
@@ -4103,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="20">
         <v>45729</v>
       </c>
@@ -4136,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="75.599999999999994">
+    <row r="22" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A22" s="20">
         <v>45730</v>
       </c>
@@ -4169,7 +4172,7 @@
         <v>0.74305555555555558</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
         <v>45731</v>
       </c>
@@ -4188,7 +4191,7 @@
       <c r="I23" s="33"/>
       <c r="J23" s="33"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
         <v>45732</v>
       </c>
@@ -4207,7 +4210,7 @@
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
     </row>
-    <row r="25" spans="1:10" ht="88.15">
+    <row r="25" spans="1:10" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A25" s="20">
         <v>45733</v>
       </c>
@@ -4240,7 +4243,7 @@
         <v>0.73611111111111116</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="100.9">
+    <row r="26" spans="1:10" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A26" s="20">
         <v>45734</v>
       </c>
@@ -4273,7 +4276,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="138.6">
+    <row r="27" spans="1:10" ht="138.6" x14ac:dyDescent="0.2">
       <c r="A27" s="20">
         <v>45735</v>
       </c>
@@ -4306,7 +4309,7 @@
         <v>0.76875000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="75.599999999999994">
+    <row r="28" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A28" s="20">
         <v>45736</v>
       </c>
@@ -4339,7 +4342,7 @@
         <v>0.71527777777777779</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="45">
         <v>45737</v>
       </c>
@@ -4370,7 +4373,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="29">
         <v>45738</v>
       </c>
@@ -4389,7 +4392,7 @@
       <c r="I30" s="33"/>
       <c r="J30" s="33"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="29">
         <v>45739</v>
       </c>
@@ -4408,7 +4411,7 @@
       <c r="I31" s="33"/>
       <c r="J31" s="33"/>
     </row>
-    <row r="32" spans="1:10" ht="86.45" customHeight="1">
+    <row r="32" spans="1:10" ht="86.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20">
         <v>45740</v>
       </c>
@@ -4441,7 +4444,7 @@
         <v>0.71527777777777779</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="100.9">
+    <row r="33" spans="1:10" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A33" s="20">
         <v>45741</v>
       </c>
@@ -4474,7 +4477,7 @@
         <v>0.74305555555555558</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="75.599999999999994">
+    <row r="34" spans="1:10" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A34" s="20">
         <v>45742</v>
       </c>
@@ -4507,7 +4510,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="63">
+    <row r="35" spans="1:10" ht="63" x14ac:dyDescent="0.2">
       <c r="A35" s="20">
         <v>45743</v>
       </c>
@@ -4540,7 +4543,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="100.9">
+    <row r="36" spans="1:10" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A36" s="20">
         <v>45744</v>
       </c>
@@ -4573,7 +4576,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="29">
         <v>45745</v>
       </c>
@@ -4592,7 +4595,7 @@
       <c r="I37" s="33"/>
       <c r="J37" s="33"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="29">
         <v>45746</v>
       </c>
@@ -4611,7 +4614,7 @@
       <c r="I38" s="33"/>
       <c r="J38" s="33"/>
     </row>
-    <row r="39" spans="1:10" ht="142.5" customHeight="1">
+    <row r="39" spans="1:10" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20">
         <v>45747</v>
       </c>
@@ -4644,7 +4647,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="40" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" s="44"/>
       <c r="C40" s="43"/>
@@ -4655,7 +4658,7 @@
       <c r="H40" s="34"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:10" ht="13.9" customHeight="1">
+    <row r="41" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="3"/>
@@ -4669,7 +4672,7 @@
       </c>
       <c r="H41" s="38"/>
     </row>
-    <row r="42" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="42" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="7"/>
@@ -4682,7 +4685,7 @@
       </c>
       <c r="H42" s="38"/>
     </row>
-    <row r="43" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="43" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="109" t="s">
         <v>40</v>
       </c>
@@ -4693,7 +4696,7 @@
       <c r="F43" s="1"/>
       <c r="H43" s="38"/>
     </row>
-    <row r="44" spans="1:10" ht="13.9">
+    <row r="44" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="4"/>
@@ -4707,7 +4710,7 @@
       </c>
       <c r="H44" s="36"/>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" thickBot="1">
+    <row r="45" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="110" t="s">
         <v>42</v>
       </c>
@@ -4723,7 +4726,7 @@
       </c>
       <c r="H45" s="38"/>
     </row>
-    <row r="46" spans="1:10" ht="14.45" thickBot="1">
+    <row r="46" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4737,7 +4740,7 @@
       </c>
       <c r="H46" s="38"/>
     </row>
-    <row r="47" spans="1:10" ht="13.9" thickBot="1">
+    <row r="47" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4746,7 +4749,7 @@
       <c r="F47" s="1"/>
       <c r="H47" s="38"/>
     </row>
-    <row r="48" spans="1:10" ht="13.9" thickBot="1">
+    <row r="48" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4757,7 +4760,7 @@
       <c r="F48" s="19"/>
       <c r="H48" s="38"/>
     </row>
-    <row r="49" spans="5:8" ht="13.15" thickBot="1">
+    <row r="49" spans="5:8" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E49" s="37"/>
       <c r="H49" s="38"/>
     </row>
@@ -4768,56 +4771,56 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A6:B6 D6:E7 D40:E41">
-    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",A6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B49">
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="Saturday">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Saturday">
       <formula>NOT(ISERROR(SEARCH("Saturday",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="Sunday">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Sunday">
       <formula>NOT(ISERROR(SEARCH("Sunday",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:E45 E48">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Religious Leave">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Religious Leave">
       <formula>NOT(ISERROR(SEARCH("Religious Leave",D43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Birthday Leave">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Birthday Leave">
       <formula>NOT(ISERROR(SEARCH("Birthday Leave",D43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Study Leave">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Study Leave">
       <formula>NOT(ISERROR(SEARCH("Study Leave",D43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Family Responsibility Leave">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Family Responsibility Leave">
       <formula>NOT(ISERROR(SEARCH("Family Responsibility Leave",D43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Sick Leave">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Sick Leave">
       <formula>NOT(ISERROR(SEARCH("Sick Leave",D43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="Annual Leave">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="Annual Leave">
       <formula>NOT(ISERROR(SEARCH("Annual Leave",D43)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"Public Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4874,18 +4877,18 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="21" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="21"/>
-    <col min="5" max="5" width="13.25" style="21" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" style="21"/>
+    <col min="5" max="5" width="13.19921875" style="21" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="21" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="21"/>
+    <col min="7" max="16384" width="8.69921875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.5" customHeight="1">
+    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90"/>
       <c r="B1" s="90"/>
       <c r="C1" s="90"/>
@@ -4893,7 +4896,7 @@
       <c r="E1" s="90"/>
       <c r="F1" s="90"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="89"/>
       <c r="B2" s="89"/>
       <c r="C2" s="94"/>
@@ -4901,7 +4904,7 @@
       <c r="E2" s="94"/>
       <c r="F2" s="94"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="89"/>
       <c r="B3" s="89"/>
       <c r="C3" s="95"/>
@@ -4909,7 +4912,7 @@
       <c r="E3" s="95"/>
       <c r="F3" s="95"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="89"/>
       <c r="B4" s="89"/>
       <c r="C4" s="96"/>
@@ -4917,7 +4920,7 @@
       <c r="E4" s="96"/>
       <c r="F4" s="96"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
@@ -4929,7 +4932,7 @@
       <c r="E5" s="96"/>
       <c r="F5" s="96"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="89" t="s">
         <v>69</v>
       </c>
@@ -4942,7 +4945,7 @@
       <c r="E6" s="95"/>
       <c r="F6" s="95"/>
     </row>
-    <row r="7" spans="1:15" ht="13.5" customHeight="1">
+    <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="83"/>
       <c r="B7" s="84"/>
       <c r="C7" s="84"/>
@@ -4950,7 +4953,7 @@
       <c r="E7" s="95"/>
       <c r="F7" s="95"/>
     </row>
-    <row r="8" spans="1:15" ht="27.4" customHeight="1">
+    <row r="8" spans="1:15" ht="27.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="119" t="s">
         <v>70</v>
       </c>
@@ -4960,7 +4963,7 @@
       <c r="E8" s="119"/>
       <c r="F8" s="119"/>
     </row>
-    <row r="9" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="92" t="s">
         <v>71</v>
       </c>
@@ -4976,7 +4979,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="88">
         <v>45566</v>
       </c>
@@ -5003,7 +5006,7 @@
       <c r="N10" s="121"/>
       <c r="O10" s="121"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="88">
         <v>45566</v>
       </c>
@@ -5017,7 +5020,7 @@
       <c r="E11" s="113"/>
       <c r="F11" s="87"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="88">
         <v>45566</v>
       </c>
@@ -5029,7 +5032,7 @@
       <c r="E12" s="113"/>
       <c r="F12" s="87"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="88">
         <v>45566</v>
       </c>
@@ -5039,7 +5042,7 @@
       <c r="E13" s="113"/>
       <c r="F13" s="87"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="88">
         <v>45566</v>
       </c>
@@ -5049,7 +5052,7 @@
       <c r="E14" s="113"/>
       <c r="F14" s="87"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="88">
         <v>45566</v>
       </c>
@@ -5059,7 +5062,7 @@
       <c r="E15" s="113"/>
       <c r="F15" s="87"/>
     </row>
-    <row r="16" spans="1:15" ht="13.15" thickBot="1">
+    <row r="16" spans="1:15" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="88">
         <v>45566</v>
       </c>
@@ -5069,7 +5072,7 @@
       <c r="E16" s="113"/>
       <c r="F16" s="87"/>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" thickBot="1">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="114" t="s">
         <v>81</v>
       </c>
@@ -5082,7 +5085,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="83"/>
       <c r="B18" s="84"/>
       <c r="C18" s="84"/>
@@ -5145,19 +5148,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="21" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="21"/>
+    <col min="2" max="2" width="11.69921875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="21"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="124"/>
       <c r="B4" s="124"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
@@ -5165,23 +5168,23 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="89" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="89"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="105" t="s">
         <v>83</v>
       </c>
       <c r="B7" s="105"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="106"/>
       <c r="B8" s="95"/>
     </row>
-    <row r="9" spans="1:6" ht="27.4" customHeight="1">
+    <row r="9" spans="1:6" ht="27.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="137" t="s">
         <v>84</v>
       </c>
@@ -5191,7 +5194,7 @@
       <c r="E9" s="137"/>
       <c r="F9" s="137"/>
     </row>
-    <row r="10" spans="1:6" ht="25.15">
+    <row r="10" spans="1:6" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A10" s="97" t="s">
         <v>85</v>
       </c>
@@ -5211,7 +5214,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="97"/>
       <c r="B11" s="97"/>
       <c r="C11" s="97"/>
@@ -5219,7 +5222,7 @@
       <c r="E11" s="97"/>
       <c r="F11" s="97"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="97"/>
       <c r="B12" s="97"/>
       <c r="C12" s="97"/>
@@ -5227,7 +5230,7 @@
       <c r="E12" s="97"/>
       <c r="F12" s="97"/>
     </row>
-    <row r="13" spans="1:6" ht="13.15" thickBot="1">
+    <row r="13" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="97"/>
       <c r="B13" s="97"/>
       <c r="C13" s="97"/>
@@ -5235,7 +5238,7 @@
       <c r="E13" s="97"/>
       <c r="F13" s="97"/>
     </row>
-    <row r="14" spans="1:6" ht="13.15" thickBot="1">
+    <row r="14" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="98"/>
       <c r="B14" s="99"/>
       <c r="C14" s="99"/>
@@ -5246,7 +5249,7 @@
       <c r="E14" s="99"/>
       <c r="F14" s="101"/>
     </row>
-    <row r="15" spans="1:6" ht="13.15" thickBot="1">
+    <row r="15" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="128"/>
       <c r="B15" s="129"/>
       <c r="C15" s="129"/>
@@ -5254,7 +5257,7 @@
       <c r="E15" s="129"/>
       <c r="F15" s="129"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="138" t="s">
         <v>91</v>
       </c>
@@ -5264,7 +5267,7 @@
       <c r="E16" s="139"/>
       <c r="F16" s="140"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="125"/>
       <c r="B17" s="126"/>
       <c r="C17" s="126"/>
@@ -5272,7 +5275,7 @@
       <c r="E17" s="126"/>
       <c r="F17" s="127"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="125"/>
       <c r="B18" s="126"/>
       <c r="C18" s="126"/>
@@ -5280,7 +5283,7 @@
       <c r="E18" s="126"/>
       <c r="F18" s="127"/>
     </row>
-    <row r="19" spans="1:6" ht="13.15" thickBot="1">
+    <row r="19" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="128"/>
       <c r="B19" s="129"/>
       <c r="C19" s="129"/>
@@ -5288,8 +5291,8 @@
       <c r="E19" s="129"/>
       <c r="F19" s="130"/>
     </row>
-    <row r="20" spans="1:6" ht="13.15" thickBot="1"/>
-    <row r="21" spans="1:6">
+    <row r="20" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="102" t="s">
         <v>3</v>
       </c>
@@ -5299,7 +5302,7 @@
       <c r="E21" s="131"/>
       <c r="F21" s="132"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="103" t="s">
         <v>92</v>
       </c>
@@ -5309,7 +5312,7 @@
       <c r="E22" s="133"/>
       <c r="F22" s="134"/>
     </row>
-    <row r="23" spans="1:6" ht="13.15" thickBot="1">
+    <row r="23" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="104" t="s">
         <v>93</v>
       </c>
@@ -5378,18 +5381,18 @@
       <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="50"/>
+    <col min="1" max="1" width="8.69921875" style="50"/>
     <col min="2" max="2" width="25.5" style="50" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="50"/>
-    <col min="4" max="4" width="19.25" style="50" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="50"/>
-    <col min="6" max="6" width="21.75" style="50" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="50"/>
+    <col min="3" max="3" width="8.69921875" style="50"/>
+    <col min="4" max="4" width="19.19921875" style="50" customWidth="1"/>
+    <col min="5" max="5" width="8.69921875" style="50"/>
+    <col min="6" max="6" width="21.69921875" style="50" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="50"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15" thickBot="1">
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="71" t="s">
         <v>16</v>
       </c>
@@ -5406,7 +5409,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="71" t="s">
         <v>97</v>
       </c>
@@ -5423,7 +5426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="71" t="s">
         <v>101</v>
       </c>
@@ -5440,7 +5443,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="71" t="s">
         <v>105</v>
       </c>
@@ -5454,7 +5457,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="71" t="s">
         <v>109</v>
       </c>
@@ -5468,7 +5471,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="71" t="s">
         <v>113</v>
       </c>
@@ -5482,7 +5485,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="71" t="s">
         <v>116</v>
       </c>
@@ -5499,7 +5502,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="71" t="s">
         <v>121</v>
       </c>
@@ -5516,7 +5519,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="71" t="s">
         <v>125</v>
       </c>
@@ -5530,7 +5533,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="71" t="s">
         <v>129</v>
       </c>
@@ -5547,7 +5550,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="71" t="s">
         <v>134</v>
       </c>
@@ -5561,7 +5564,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="71" t="s">
         <v>138</v>
       </c>
@@ -5572,7 +5575,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="71" t="s">
         <v>141</v>
       </c>
@@ -5584,7 +5587,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="71" t="s">
         <v>144</v>
       </c>
@@ -5596,7 +5599,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="71" t="s">
         <v>147</v>
       </c>
@@ -5608,7 +5611,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="27.6">
+    <row r="17" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B17" s="71" t="s">
         <v>150</v>
       </c>
@@ -5620,7 +5623,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="71" t="s">
         <v>153</v>
       </c>
@@ -5632,7 +5635,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="71" t="s">
         <v>156</v>
       </c>
@@ -5644,7 +5647,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="71" t="s">
         <v>159</v>
       </c>
@@ -5656,7 +5659,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="71" t="s">
         <v>162</v>
       </c>
@@ -5668,7 +5671,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="71" t="s">
         <v>165</v>
       </c>
@@ -5680,7 +5683,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="71" t="s">
         <v>168</v>
       </c>
@@ -5692,7 +5695,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="71" t="s">
         <v>171</v>
       </c>
@@ -5704,7 +5707,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="71" t="s">
         <v>174</v>
       </c>
@@ -5716,7 +5719,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="71" t="s">
         <v>177</v>
       </c>
@@ -5727,7 +5730,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="71" t="s">
         <v>180</v>
       </c>
@@ -5739,7 +5742,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="71" t="s">
         <v>183</v>
       </c>
@@ -5751,7 +5754,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="71" t="s">
         <v>186</v>
       </c>
@@ -5762,7 +5765,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="71" t="s">
         <v>189</v>
       </c>
@@ -5773,7 +5776,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="71" t="s">
         <v>192</v>
       </c>
@@ -5784,7 +5787,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="71" t="s">
         <v>195</v>
       </c>
@@ -5795,7 +5798,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="71" t="s">
         <v>198</v>
       </c>
@@ -5806,7 +5809,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="71" t="s">
         <v>201</v>
       </c>
@@ -5817,7 +5820,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="71" t="s">
         <v>204</v>
       </c>
@@ -5828,7 +5831,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="71" t="s">
         <v>206</v>
       </c>
@@ -5839,7 +5842,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="71" t="s">
         <v>209</v>
       </c>
@@ -5850,7 +5853,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="71" t="s">
         <v>212</v>
       </c>
@@ -5861,7 +5864,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="71" t="s">
         <v>214</v>
       </c>
@@ -5872,7 +5875,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="71" t="s">
         <v>217</v>
       </c>
@@ -5880,107 +5883,107 @@
         <v>218</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="62"/>
       <c r="D41" s="63"/>
       <c r="H41" s="72" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="60"/>
       <c r="H42" s="79" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H43" s="78" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="61"/>
       <c r="H44" s="79" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H45" s="79" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H46" s="79" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="61"/>
       <c r="H47" s="79" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H48" s="78" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="49" spans="8:8">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H49" s="78" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="8:8">
+    <row r="50" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H50" s="78" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="8:8">
+    <row r="51" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H51" s="78" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="8:8">
+    <row r="52" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H52" s="65" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="8:8">
+    <row r="53" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H53" s="64" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="54" spans="8:8">
+    <row r="54" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H54" s="65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="8:8" ht="15" thickBot="1">
+    <row r="55" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H55" s="66" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="8:8" ht="15" thickBot="1">
+    <row r="56" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H56" s="70" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="8:8" ht="15" thickBot="1">
+    <row r="57" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H57" s="70"/>
     </row>
-    <row r="58" spans="8:8" ht="15" thickBot="1">
+    <row r="58" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H58" s="67"/>
     </row>
-    <row r="59" spans="8:8" ht="15" thickBot="1">
+    <row r="59" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H59" s="67"/>
     </row>
-    <row r="60" spans="8:8" ht="15" thickBot="1">
+    <row r="60" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H60" s="68"/>
     </row>
-    <row r="61" spans="8:8" ht="15" thickBot="1">
+    <row r="61" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H61" s="69"/>
     </row>
-    <row r="62" spans="8:8" ht="15" thickBot="1">
+    <row r="62" spans="8:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H62" s="67"/>
     </row>
   </sheetData>
@@ -5999,6 +6002,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d277ce56-8de3-43c1-b9ce-ff5033dad840">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0b8b2123-f09a-47bf-9044-f6e489c8d7a1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEA673424E99D044B4A1FB44474552A9" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="541cb6b9fee9288be1513af1acd9efd1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d277ce56-8de3-43c1-b9ce-ff5033dad840" xmlns:ns3="0b8b2123-f09a-47bf-9044-f6e489c8d7a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="073d35413c2933ae4492be48b3c2f5c2" ns2:_="" ns3:_="">
     <xsd:import namespace="d277ce56-8de3-43c1-b9ce-ff5033dad840"/>
@@ -6193,36 +6216,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d277ce56-8de3-43c1-b9ce-ff5033dad840">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0b8b2123-f09a-47bf-9044-f6e489c8d7a1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA597F34-68E9-44A3-B7DE-FB6D3B54314D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F8A9645-7AF3-460D-890E-7C485D7E067D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d277ce56-8de3-43c1-b9ce-ff5033dad840"/>
+    <ds:schemaRef ds:uri="0b8b2123-f09a-47bf-9044-f6e489c8d7a1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F8A9645-7AF3-460D-890E-7C485D7E067D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4061753-4EE1-4065-89FB-0775A4B40D30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4061753-4EE1-4065-89FB-0775A4B40D30}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA597F34-68E9-44A3-B7DE-FB6D3B54314D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d277ce56-8de3-43c1-b9ce-ff5033dad840"/>
+    <ds:schemaRef ds:uri="0b8b2123-f09a-47bf-9044-f6e489c8d7a1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Hands-on Projects/Timesheet Migration/Timesheets/Karabo Tsaoane/Karabo_Tsaoane_March_Final.xlsx
+++ b/Hands-on Projects/Timesheet Migration/Timesheets/Karabo Tsaoane/Karabo_Tsaoane_March_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\scGradsGithub\Hands-on Projects\Timesheet Migration\Timesheets\Karabo Tsaoane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64650FB4-B42A-4855-A75F-CB8ACB31C5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B76A764-C911-48AB-9D5D-54B7A1383E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{1C8F8026-B005-4B08-94D3-371A77F74D8F}"/>
   </bookViews>
@@ -995,7 +995,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1566,11 +1566,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1810,21 +1841,56 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1838,21 +1904,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1910,7 +1961,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="53">
     <dxf>
       <fill>
         <patternFill>
@@ -2275,6 +2326,403 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="h:mm;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="h:mm;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="h:mm;@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{6758C6CA-2356-4535-9D9D-86230C423211}"/>
@@ -2487,6 +2935,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6A5E2E2-F66B-486C-82EF-416826DAE135}" name="Table2" displayName="Table2" ref="A8:J39" totalsRowShown="0" headerRowDxfId="52" headerRowBorderDxfId="51" tableBorderDxfId="50" totalsRowBorderDxfId="49">
+  <autoFilter ref="A8:J39" xr:uid="{F6A5E2E2-F66B-486C-82EF-416826DAE135}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{C8E83658-0666-4D75-9236-8A288A846127}" name="Date" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{B98F658C-17B0-4E99-B382-1193EF80A64F}" name="D of Week" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{89C2761E-D8E1-4380-8233-53FD8A2AF221}" name="Client" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{D8FC4AC7-12BE-49C4-AC37-1792A4E86882}" name="Client Project Name" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{2FE48E29-4B79-4213-9584-C817589D8592}" name="Description" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{99FF3C2D-7804-47C7-A56A-37631A56BE6F}" name="Billable or Non Billable" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{3410DCE0-D126-49F9-BCFE-FFFCB41EAB81}" name="Comments" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{6302C6D8-0FF3-4F28-A1AC-5412E9D42718}" name="Total Hours" dataDxfId="41">
+      <calculatedColumnFormula>J9-I9</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{20D97BE9-9FF2-46D9-8F84-FF8F10570025}" name="Start Time" dataDxfId="40"/>
+    <tableColumn id="10" xr3:uid="{3DE76B53-BB4E-4A6B-A26B-EA4F4B8ED5BB}" name="End Time" dataDxfId="39"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2E876225-7964-4082-91F1-C6221C464408}" name="WorkType" displayName="WorkType" ref="H2:H62" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="H2:H62" xr:uid="{2E876225-7964-4082-91F1-C6221C464408}"/>
   <tableColumns count="1">
@@ -2496,7 +2965,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B149CFBE-03DA-4A5C-8F86-52A53133C863}" name="ProjectTable" displayName="ProjectTable" ref="F2:F39" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
   <autoFilter ref="F2:F39" xr:uid="{B149CFBE-03DA-4A5C-8F86-52A53133C863}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F3:F19">
@@ -3505,11 +3974,11 @@
       <c r="H32" s="38"/>
     </row>
     <row r="33" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="109" t="s">
+      <c r="A33" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="119"/>
       <c r="D33" s="10"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -3530,11 +3999,11 @@
       <c r="H34" s="36"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
       <c r="D35" s="14"/>
       <c r="E35" s="15" t="s">
         <v>43</v>
@@ -3692,8 +4161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1366D5-46F5-410C-BC9F-D56DCF566D28}">
   <dimension ref="A5:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:J39"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3701,10 +4170,14 @@
     <col min="1" max="1" width="12" style="21" customWidth="1"/>
     <col min="2" max="2" width="13.09765625" style="21" customWidth="1"/>
     <col min="3" max="3" width="16.19921875" style="21" customWidth="1"/>
-    <col min="4" max="5" width="20" style="21" customWidth="1"/>
-    <col min="6" max="6" width="23.09765625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="21.8984375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="20" style="21" customWidth="1"/>
+    <col min="6" max="6" width="24.09765625" style="21" customWidth="1"/>
     <col min="7" max="7" width="34" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="8.69921875" style="21"/>
+    <col min="8" max="8" width="13.69921875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="12.69921875" style="21" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="21" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="21"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3734,35 +4207,35 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H7" s="38"/>
     </row>
-    <row r="8" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="113" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4615,35 +5088,35 @@
       <c r="J38" s="33"/>
     </row>
     <row r="39" spans="1:10" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20">
+      <c r="A39" s="114">
         <v>45747</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="H39" s="27">
+      <c r="H39" s="117">
         <f t="shared" ref="H39" si="1">J39-I39</f>
         <v>0.39583333333333331</v>
       </c>
-      <c r="I39" s="28">
+      <c r="I39" s="118">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J39" s="28">
+      <c r="J39" s="118">
         <v>0.72916666666666663</v>
       </c>
     </row>
@@ -4686,11 +5159,11 @@
       <c r="H42" s="38"/>
     </row>
     <row r="43" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="109" t="s">
+      <c r="A43" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="109"/>
-      <c r="C43" s="109"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="119"/>
       <c r="D43" s="10"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -4711,11 +5184,11 @@
       <c r="H44" s="36"/>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="110" t="s">
+      <c r="A45" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="110"/>
-      <c r="C45" s="110"/>
+      <c r="B45" s="120"/>
+      <c r="C45" s="120"/>
       <c r="D45" s="14"/>
       <c r="E45" s="15" t="s">
         <v>43</v>
@@ -4836,6 +5309,9 @@
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Classified as Confidential</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -4954,27 +5430,27 @@
       <c r="F7" s="95"/>
     </row>
     <row r="8" spans="1:15" ht="27.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="122" t="s">
+      <c r="C9" s="124"/>
+      <c r="D9" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="123"/>
+      <c r="E9" s="124"/>
       <c r="F9" s="93" t="s">
         <v>74</v>
       </c>
@@ -4983,103 +5459,103 @@
       <c r="A10" s="88">
         <v>45566</v>
       </c>
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113" t="s">
+      <c r="C10" s="125"/>
+      <c r="D10" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="113"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="87">
         <v>200</v>
       </c>
-      <c r="G10" s="120" t="s">
+      <c r="G10" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="88">
         <v>45566</v>
       </c>
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="113" t="s">
+      <c r="C11" s="128"/>
+      <c r="D11" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="113"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="87"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="88">
         <v>45566</v>
       </c>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="87"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="88">
         <v>45566</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
       <c r="F13" s="87"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="88">
         <v>45566</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="87"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="88">
         <v>45566</v>
       </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="87"/>
     </row>
     <row r="16" spans="1:15" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="88">
         <v>45566</v>
       </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="87"/>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="114" t="s">
+      <c r="A17" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="116"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="131"/>
       <c r="F17" s="86">
         <f>SUM(F10:F16)</f>
         <v>200</v>
@@ -5095,16 +5571,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G10:O10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="A17:E17"/>
@@ -5114,6 +5580,16 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G10:O10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D18" xr:uid="{517DF1E8-3052-48CF-9AE1-C19E6ECB6686}">
@@ -5157,8 +5633,8 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="124"/>
-      <c r="B4" s="124"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="134"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
@@ -5185,14 +5661,14 @@
       <c r="B8" s="95"/>
     </row>
     <row r="9" spans="1:6" ht="27.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="137" t="s">
+      <c r="A9" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
     </row>
     <row r="10" spans="1:6" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A10" s="97" t="s">
@@ -5250,77 +5726,77 @@
       <c r="F14" s="101"/>
     </row>
     <row r="15" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="128"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
+      <c r="A15" s="138"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="138" t="s">
+      <c r="A16" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="139"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="140"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="150"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="125"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="127"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="137"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="125"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="127"/>
+      <c r="A18" s="135"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="137"/>
     </row>
     <row r="19" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="128"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="130"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="140"/>
     </row>
     <row r="20" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="132"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="142"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="144"/>
     </row>
     <row r="23" spans="1:6" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="135"/>
-      <c r="C23" s="135"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="136"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6013,15 +6489,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEA673424E99D044B4A1FB44474552A9" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="541cb6b9fee9288be1513af1acd9efd1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d277ce56-8de3-43c1-b9ce-ff5033dad840" xmlns:ns3="0b8b2123-f09a-47bf-9044-f6e489c8d7a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="073d35413c2933ae4492be48b3c2f5c2" ns2:_="" ns3:_="">
     <xsd:import namespace="d277ce56-8de3-43c1-b9ce-ff5033dad840"/>
@@ -6216,6 +6683,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F8A9645-7AF3-460D-890E-7C485D7E067D}">
   <ds:schemaRefs>
@@ -6228,14 +6704,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4061753-4EE1-4065-89FB-0775A4B40D30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA597F34-68E9-44A3-B7DE-FB6D3B54314D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6254,6 +6722,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4061753-4EE1-4065-89FB-0775A4B40D30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{5138fff4-6130-46cf-adb5-ec5d984d54d5}" enabled="1" method="Privileged" siteId="{174c7352-9c5c-4558-b848-be140b444e7d}" contentBits="2" removed="0"/>
